--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N2">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O2">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P2">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q2">
-        <v>128.137159904226</v>
+        <v>3.981454656397556</v>
       </c>
       <c r="R2">
-        <v>1153.234439138034</v>
+        <v>35.833091907578</v>
       </c>
       <c r="S2">
-        <v>0.03046733667212132</v>
+        <v>0.002142733511039204</v>
       </c>
       <c r="T2">
-        <v>0.03046733667212132</v>
+        <v>0.002142733511039203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.074512</v>
       </c>
       <c r="O3">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P3">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q3">
-        <v>58.808739765408</v>
+        <v>16.703515093728</v>
       </c>
       <c r="R3">
-        <v>529.278657888672</v>
+        <v>150.331635843552</v>
       </c>
       <c r="S3">
-        <v>0.013983029396274</v>
+        <v>0.008989473605072826</v>
       </c>
       <c r="T3">
-        <v>0.013983029396274</v>
+        <v>0.008989473605072826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N4">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O4">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P4">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q4">
-        <v>24.18215863927111</v>
+        <v>7.218855653779333</v>
       </c>
       <c r="R4">
-        <v>217.63942775344</v>
+        <v>64.96970088401399</v>
       </c>
       <c r="S4">
-        <v>0.005749822840400112</v>
+        <v>0.003885033299538669</v>
       </c>
       <c r="T4">
-        <v>0.005749822840400112</v>
+        <v>0.003885033299538669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N5">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O5">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P5">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q5">
-        <v>2258.125965328431</v>
+        <v>247.0295138865859</v>
       </c>
       <c r="R5">
-        <v>20323.13368795588</v>
+        <v>2223.265624979274</v>
       </c>
       <c r="S5">
-        <v>0.5369175037525649</v>
+        <v>0.1329459866559029</v>
       </c>
       <c r="T5">
-        <v>0.5369175037525649</v>
+        <v>0.1329459866559029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.074512</v>
       </c>
       <c r="O6">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P6">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q6">
         <v>1036.370264112048</v>
@@ -818,10 +818,10 @@
         <v>9327.332377008433</v>
       </c>
       <c r="S6">
-        <v>0.2464190854337461</v>
+        <v>0.5577522504718682</v>
       </c>
       <c r="T6">
-        <v>0.2464190854337462</v>
+        <v>0.5577522504718682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N7">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O7">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P7">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q7">
-        <v>426.1555380331823</v>
+        <v>447.8941886491444</v>
       </c>
       <c r="R7">
-        <v>3835.399842298641</v>
+        <v>4031.047697842299</v>
       </c>
       <c r="S7">
-        <v>0.1013275482432302</v>
+        <v>0.2410470469319861</v>
       </c>
       <c r="T7">
-        <v>0.1013275482432302</v>
+        <v>0.2410470469319861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N8">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O8">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P8">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q8">
-        <v>166.260335127777</v>
+        <v>14.11461686405011</v>
       </c>
       <c r="R8">
-        <v>1496.343016149993</v>
+        <v>127.031551776451</v>
       </c>
       <c r="S8">
-        <v>0.03953193288616536</v>
+        <v>0.007596184098563633</v>
       </c>
       <c r="T8">
-        <v>0.03953193288616536</v>
+        <v>0.007596184098563632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.074512</v>
       </c>
       <c r="O9">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P9">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q9">
-        <v>76.30542763041599</v>
+        <v>59.215471775376</v>
       </c>
       <c r="R9">
-        <v>686.748848673744</v>
+        <v>532.9392459783841</v>
       </c>
       <c r="S9">
-        <v>0.0181432392856508</v>
+        <v>0.03186849699298064</v>
       </c>
       <c r="T9">
-        <v>0.01814323928565081</v>
+        <v>0.03186849699298064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N10">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O10">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P10">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q10">
-        <v>31.37679813165333</v>
+        <v>25.59149621012367</v>
       </c>
       <c r="R10">
-        <v>282.39118318488</v>
+        <v>230.323465891113</v>
       </c>
       <c r="S10">
-        <v>0.007460501489847217</v>
+        <v>0.01377279443304786</v>
       </c>
       <c r="T10">
-        <v>0.007460501489847217</v>
+        <v>0.01377279443304786</v>
       </c>
     </row>
   </sheetData>
